--- a/propor/Tarefa_4_prop.xlsx
+++ b/propor/Tarefa_4_prop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reconstrucao_estatistica_pesqueira\reconstrucao_estatistica_brasileira\RE\Reconstru--o\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06062E9B-5AC8-4FC4-8221-835C003D09BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4C4ACC-68D4-4EAF-A1E6-563D90DBC20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,10 +116,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -129,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -137,9 +137,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,17 +446,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H29" sqref="H2:H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61:H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -478,7 +482,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -486,281 +490,301 @@
       <c r="A2">
         <v>1950</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2">
-        <f>B2+C2+D2</f>
-        <v>0</v>
-      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1951</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">B3+C3+D3</f>
-        <v>0</v>
-      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1952</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1953</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1954</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1955</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1956</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1957</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1958</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1959</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1960</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1961</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1962</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1963</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>191</v>
+      </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="E3:E66" si="0">B15+C15+D15</f>
+        <v>191</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H3:H66" si="1">D15/E15</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1964</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
+        <v>120</v>
+      </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1965</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
+        <v>126</v>
+      </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1966</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>107</v>
+      </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1967</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
+        <v>73</v>
+      </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1968</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>65</v>
+      </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1969</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <v>98</v>
+      </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1970</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>42</v>
+      </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1971</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <v>45</v>
+      </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1972</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>150</v>
+      </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1973</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <v>52</v>
+      </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1974</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>44</v>
+      </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1975</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1976</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1977</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -770,71 +794,43 @@
         <f>2+67</f>
         <v>69</v>
       </c>
-      <c r="D30" s="2">
-        <v>191</v>
-      </c>
+      <c r="C30" s="6"/>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>69</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F3:F66" si="1">B30/E30</f>
-        <v>0.26538461538461539</v>
+        <f>B30/E30</f>
+        <v>1</v>
       </c>
       <c r="G30">
         <f t="shared" ref="G3:G66" si="2">C30/E30</f>
         <v>0</v>
       </c>
-      <c r="H30">
-        <f t="shared" ref="H3:H66" si="3">D30/E30</f>
-        <v>0.73461538461538467</v>
-      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1979</v>
       </c>
-      <c r="D31" s="2">
-        <v>120</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1980</v>
       </c>
       <c r="D32" s="2">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -842,108 +838,92 @@
       <c r="A33">
         <v>1981</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
-        <v>9.2592592592592587E-3</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="H33">
-        <f t="shared" si="3"/>
-        <v>0.9907407407407407</v>
+        <f t="shared" si="1"/>
+        <v>0.97560975609756095</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1982</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" s="2">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>1.3513513513513514E-2</v>
+        <v>0.02</v>
       </c>
       <c r="H34">
-        <f t="shared" si="3"/>
-        <v>0.98648648648648651</v>
+        <f t="shared" si="1"/>
+        <v>0.98</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1983</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" s="2">
-        <v>65</v>
+        <v>31.5</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
-        <v>1.5151515151515152E-2</v>
+        <v>3.0769230769230771E-2</v>
       </c>
       <c r="H35">
-        <f t="shared" si="3"/>
-        <v>0.98484848484848486</v>
+        <f t="shared" si="1"/>
+        <v>0.96923076923076923</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1984</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" s="2">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G36">
         <f t="shared" si="2"/>
-        <v>1.0101010101010102E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H36">
-        <f t="shared" si="3"/>
-        <v>0.98989898989898994</v>
+        <f t="shared" si="1"/>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -951,22 +931,14 @@
         <v>1985</v>
       </c>
       <c r="D37" s="2">
-        <v>42</v>
+        <v>28.5</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="H37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -975,22 +947,14 @@
         <v>1986</v>
       </c>
       <c r="D38" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -998,27 +962,23 @@
       <c r="A39">
         <v>1987</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39">
         <v>45</v>
       </c>
       <c r="D39" s="2">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G39">
         <f t="shared" si="2"/>
-        <v>0.23076923076923078</v>
+        <v>0.569620253164557</v>
       </c>
       <c r="H39">
-        <f t="shared" si="3"/>
-        <v>0.76923076923076927</v>
+        <f t="shared" si="1"/>
+        <v>0.43037974683544306</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1026,22 +986,14 @@
         <v>1988</v>
       </c>
       <c r="D40" s="2">
-        <v>52</v>
+        <v>33.5</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="H40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1050,22 +1002,14 @@
         <v>1989</v>
       </c>
       <c r="D41" s="2">
-        <v>44</v>
+        <v>35.5</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="H41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1073,73 +1017,95 @@
       <c r="A42">
         <v>1990</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="2">
+        <v>39.5</v>
+      </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39.5</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1991</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2">
+        <v>37.5</v>
+      </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37.5</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1992</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="2">
+        <v>63.5</v>
+      </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63.5</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1993</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="4">
+        <v>17.11</v>
+      </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17.11</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1994</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="4">
+        <v>10.449</v>
+      </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.449</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1995</v>
       </c>
-      <c r="D47" s="2">
-        <v>86</v>
+      <c r="D47" s="4">
+        <v>21.5885</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.5885</v>
       </c>
       <c r="H47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1147,23 +1113,15 @@
       <c r="A48">
         <v>1996</v>
       </c>
-      <c r="D48" s="2">
-        <v>40</v>
+      <c r="D48" s="4">
+        <v>26.908000000000001</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>26.908000000000001</v>
       </c>
       <c r="H48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1171,23 +1129,15 @@
       <c r="A49">
         <v>1997</v>
       </c>
-      <c r="D49" s="2">
-        <v>49</v>
+      <c r="D49" s="4">
+        <v>18.466000000000001</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18.466000000000001</v>
       </c>
       <c r="H49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1195,23 +1145,15 @@
       <c r="A50">
         <v>1998</v>
       </c>
-      <c r="D50" s="2">
-        <v>31.5</v>
+      <c r="D50" s="4">
+        <v>32.603999999999999</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>31.5</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>32.603999999999999</v>
       </c>
       <c r="H50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1219,23 +1161,15 @@
       <c r="A51">
         <v>1999</v>
       </c>
-      <c r="D51" s="2">
-        <v>23</v>
+      <c r="D51" s="4">
+        <v>57.366</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>57.366</v>
       </c>
       <c r="H51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1243,71 +1177,25 @@
       <c r="A52">
         <v>2000</v>
       </c>
-      <c r="D52" s="2">
-        <v>28.5</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="0"/>
-        <v>28.5</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2001</v>
       </c>
-      <c r="D53" s="2">
-        <v>37</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2002</v>
       </c>
-      <c r="D54" s="2">
-        <v>34</v>
+      <c r="D54" s="5">
+        <v>1.2233000000000001</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.2233000000000001</v>
       </c>
       <c r="H54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1315,23 +1203,15 @@
       <c r="A55">
         <v>2003</v>
       </c>
-      <c r="D55" s="2">
-        <v>33.5</v>
+      <c r="D55" s="5">
+        <v>3.6819999999999999</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>33.5</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.6819999999999999</v>
       </c>
       <c r="H55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1339,23 +1219,15 @@
       <c r="A56">
         <v>2004</v>
       </c>
-      <c r="D56" s="2">
-        <v>35.5</v>
+      <c r="D56" s="5">
+        <v>5.8742999999999999</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>35.5</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.8742999999999999</v>
       </c>
       <c r="H56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1363,23 +1235,15 @@
       <c r="A57">
         <v>2005</v>
       </c>
-      <c r="D57" s="2">
-        <v>39.5</v>
+      <c r="D57" s="5">
+        <v>2.0100000000000002</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>39.5</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.0100000000000002</v>
       </c>
       <c r="H57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1387,23 +1251,15 @@
       <c r="A58">
         <v>2006</v>
       </c>
-      <c r="D58" s="2">
-        <v>37.5</v>
+      <c r="D58" s="5">
+        <v>4.8529999999999998</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>37.5</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.8529999999999998</v>
       </c>
       <c r="H58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1411,23 +1267,15 @@
       <c r="A59">
         <v>2007</v>
       </c>
-      <c r="D59" s="2">
-        <v>63.5</v>
+      <c r="D59" s="5">
+        <v>2.6695000000000002</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>63.5</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.6695000000000002</v>
       </c>
       <c r="H59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1435,49 +1283,11 @@
       <c r="A60">
         <v>2008</v>
       </c>
-      <c r="D60" s="4">
-        <v>17.11</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="0"/>
-        <v>17.11</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2009</v>
       </c>
-      <c r="D61" s="4">
-        <v>10.449</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="0"/>
-        <v>10.449</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -1486,24 +1296,13 @@
       <c r="B62" s="3">
         <v>0.03</v>
       </c>
-      <c r="D62" s="4">
-        <v>21.5885</v>
-      </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>21.618500000000001</v>
+        <v>0.03</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
-        <v>1.3877003492379211E-3</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="3"/>
-        <v>0.99861229965076204</v>
+        <f t="shared" ref="F3:F66" si="3">B62/E62</f>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -1513,267 +1312,136 @@
       <c r="B63" s="3">
         <v>682.899</v>
       </c>
-      <c r="D63" s="4">
-        <v>26.908000000000001</v>
-      </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>709.80700000000002</v>
+        <v>682.899</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
-        <v>0.96209110363803119</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H63">
         <f t="shared" si="3"/>
-        <v>3.790889636196882E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2012</v>
       </c>
-      <c r="D64" s="4">
-        <v>18.466000000000001</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="0"/>
-        <v>18.466000000000001</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2013</v>
       </c>
       <c r="B65" s="4">
         <v>111.727</v>
       </c>
-      <c r="D65" s="4">
-        <v>32.603999999999999</v>
-      </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>144.33100000000002</v>
+        <v>111.727</v>
       </c>
       <c r="F65">
-        <f t="shared" si="1"/>
-        <v>0.77410258364453921</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H65">
         <f t="shared" si="3"/>
-        <v>0.22589741635546068</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2014</v>
       </c>
       <c r="B66" s="4">
         <v>16.105</v>
       </c>
-      <c r="D66" s="4">
-        <v>57.366</v>
-      </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>73.471000000000004</v>
+        <v>16.105</v>
       </c>
       <c r="F66">
-        <f t="shared" si="1"/>
-        <v>0.21920213417538892</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H66">
         <f t="shared" si="3"/>
-        <v>0.78079786582461108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2015</v>
       </c>
-      <c r="D67" s="2"/>
-      <c r="E67">
-        <f t="shared" ref="E67:E74" si="4">B67+C67+D67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2016</v>
       </c>
-      <c r="D68" s="2"/>
-      <c r="E68">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2017</v>
       </c>
-      <c r="D69" s="6">
-        <v>1.2233000000000001</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="4"/>
-        <v>1.2233000000000001</v>
-      </c>
-      <c r="F69">
-        <f t="shared" ref="F67:F74" si="5">B69/E69</f>
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <f t="shared" ref="G67:G74" si="6">C69/E69</f>
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <f t="shared" ref="H67:H74" si="7">D69/E69</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2018</v>
       </c>
-      <c r="D70" s="6">
-        <v>3.6819999999999999</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="4"/>
-        <v>3.6819999999999999</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2019</v>
       </c>
-      <c r="D71" s="6">
-        <v>5.8742999999999999</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="4"/>
-        <v>5.8742999999999999</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2020</v>
       </c>
-      <c r="D72" s="6">
-        <v>2.0100000000000002</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="4"/>
-        <v>2.0100000000000002</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2021</v>
       </c>
-      <c r="D73" s="6">
-        <v>4.8529999999999998</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="4"/>
-        <v>4.8529999999999998</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2022</v>
       </c>
-      <c r="D74" s="6">
-        <v>2.6695000000000002</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="4"/>
-        <v>2.6695000000000002</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
+    </row>
+    <row r="1048562" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048562"/>
+    </row>
+    <row r="1048563" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048563"/>
+    </row>
+    <row r="1048564" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048564"/>
+    </row>
+    <row r="1048565" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048565"/>
+    </row>
+    <row r="1048566" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048566"/>
+    </row>
+    <row r="1048567" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048567"/>
+    </row>
+    <row r="1048568" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048568"/>
+    </row>
+    <row r="1048569" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048569"/>
+    </row>
+    <row r="1048570" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048570"/>
+    </row>
+    <row r="1048571" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048571"/>
+    </row>
+    <row r="1048572" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048572"/>
+    </row>
+    <row r="1048573" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048573"/>
+    </row>
+    <row r="1048574" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048574"/>
+    </row>
+    <row r="1048575" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048575"/>
+    </row>
+    <row r="1048576" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048576"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
